--- a/data/trans_orig/Q03B_LAB-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_LAB-Dificultad-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.388091445847933</v>
+        <v>1.394391202833505</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.462760734324574</v>
+        <v>1.455876834123569</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.716010971689071</v>
+        <v>1.715700993687871</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.323437850003982</v>
+        <v>3.329556245937451</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.794198642341319</v>
+        <v>3.775604831876637</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.838431662043809</v>
+        <v>3.843644090495825</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.610966434070358</v>
+        <v>2.6119071188401</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.686139760494268</v>
+        <v>2.687743528682891</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.874214469866883</v>
+        <v>2.885337092248222</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.805696649143292</v>
+        <v>1.811519836859084</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.678402218428112</v>
+        <v>1.672238887668813</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.936427605159711</v>
+        <v>1.941734219193909</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.623138926334661</v>
+        <v>3.637271635759582</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.064047773282955</v>
+        <v>4.07357682521745</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.082050153257732</v>
+        <v>4.099184774556147</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.874873438830259</v>
+        <v>2.880865431555323</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.8935846118241</v>
+        <v>2.894057887584099</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.065960293238915</v>
+        <v>3.064084922252446</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.117611445016653</v>
+        <v>1.11462494581202</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.298653842746295</v>
+        <v>1.313816243229535</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.554729472673186</v>
+        <v>1.550236376001768</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.68934818390289</v>
+        <v>3.687773231854085</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.38716886133518</v>
+        <v>3.379768518213579</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.286671919233225</v>
+        <v>3.294504259259722</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.400531237922521</v>
+        <v>2.407779528349751</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.426841005977011</v>
+        <v>2.423605257104935</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.49341587798939</v>
+        <v>2.499794390180571</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.336705079079687</v>
+        <v>1.330178509229744</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.513987787829916</v>
+        <v>1.514228165466726</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.740383561387035</v>
+        <v>1.735836851188131</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.988417290398561</v>
+        <v>3.978936862361246</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.65896975009225</v>
+        <v>3.658507983277438</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.5142159148319</v>
+        <v>3.516460143743601</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.609705789741808</v>
+        <v>2.621776143285711</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.636197594263276</v>
+        <v>2.613663195110165</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.664502211801817</v>
+        <v>2.676358055862349</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9260074256213308</v>
+        <v>0.923751994085927</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.240966918663903</v>
+        <v>1.237503636756368</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.525549179000236</v>
+        <v>1.530707525134326</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.322056547270106</v>
+        <v>3.281867571499778</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.142831551301918</v>
+        <v>3.143868335440307</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.961148208357576</v>
+        <v>2.963125595183371</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.080092560959689</v>
+        <v>2.074237641981873</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.213786978468257</v>
+        <v>2.216902032853815</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.251041118418271</v>
+        <v>2.255089268666941</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.13160572888553</v>
+        <v>1.119046039541947</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.444344089466662</v>
+        <v>1.442848310467686</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.706701262529933</v>
+        <v>1.717098321585434</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.667136878028412</v>
+        <v>3.640485156058038</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.435688346861041</v>
+        <v>3.423032542423692</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.249799932527682</v>
+        <v>3.255712323109063</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.302086219251033</v>
+        <v>2.288855568093974</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.416739427210873</v>
+        <v>2.413317832045581</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.443885806390553</v>
+        <v>2.441529281201292</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.060949705227705</v>
+        <v>1.064948694020884</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.340566467471801</v>
+        <v>1.316096504001937</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.444174725589715</v>
+        <v>1.458781985483328</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.780234020397402</v>
+        <v>2.767711666770992</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.149273438177074</v>
+        <v>3.133421250995857</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.843813764387493</v>
+        <v>2.873399805596633</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.822980616212853</v>
+        <v>1.82507883564336</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.210889343547895</v>
+        <v>2.23140228583939</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.193266136337149</v>
+        <v>2.187266177712942</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.382288892734255</v>
+        <v>1.403904283877454</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.614129390780328</v>
+        <v>1.586795891147618</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.680501851263588</v>
+        <v>1.699202957855942</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.284003644229376</v>
+        <v>3.261488913226291</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.580376027350114</v>
+        <v>3.585939128449394</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.263181798590468</v>
+        <v>3.254150828859868</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.150326642276049</v>
+        <v>2.137605169553134</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.50261811851574</v>
+        <v>2.507315585319486</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.455018050437181</v>
+        <v>2.440398465120587</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.149964098559168</v>
+        <v>1.144562535396537</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.386565712814455</v>
+        <v>1.39325803086839</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.630555210924016</v>
+        <v>1.631277628807436</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.453240358126289</v>
+        <v>3.456431237598447</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.483850517500416</v>
+        <v>3.49131704260495</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.418812584815726</v>
+        <v>3.416568854248196</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.332196612853957</v>
+        <v>2.333542325719539</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.470427008559576</v>
+        <v>2.475494308911836</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.573535505569593</v>
+        <v>2.572486239006127</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.282441447116456</v>
+        <v>1.273489785865372</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.499993742817265</v>
+        <v>1.499993735008993</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.740672213700394</v>
+        <v>1.740361181174875</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.628683251731484</v>
+        <v>3.637453186129442</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.639956343570016</v>
+        <v>3.636436284296057</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.555981404259456</v>
+        <v>3.560391221541004</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.459459248388385</v>
+        <v>2.459443007174467</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.586319529380499</v>
+        <v>2.586864833034331</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.672623140745291</v>
+        <v>2.674743947405604</v>
       </c>
     </row>
     <row r="19">
